--- a/data/1.2/order(2, 2).xlsx
+++ b/data/1.2/order(2, 2).xlsx
@@ -516,7 +516,7 @@
         <v>7</v>
       </c>
       <c r="L2">
-        <v>5.5</v>
+        <v>1662787800</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -569,7 +569,7 @@
         <v>17</v>
       </c>
       <c r="L3">
-        <v>0.5</v>
+        <v>1662769800</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="L4">
-        <v>1.5</v>
+        <v>1662773400</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>16</v>
       </c>
       <c r="L5">
-        <v>6.5</v>
+        <v>1662791400</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>19</v>
       </c>
       <c r="L6">
-        <v>9.5</v>
+        <v>1662802200</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>1</v>
       </c>
       <c r="L7">
-        <v>2.5</v>
+        <v>1662777000</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>16</v>
       </c>
       <c r="L8">
-        <v>1.5</v>
+        <v>1662773400</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -887,7 +887,7 @@
         <v>19</v>
       </c>
       <c r="L9">
-        <v>0.5</v>
+        <v>1662769800</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>8</v>
       </c>
       <c r="L10">
-        <v>1.5</v>
+        <v>1662773400</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>2.5</v>
+        <v>1662777000</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1046,7 +1046,7 @@
         <v>5</v>
       </c>
       <c r="L12">
-        <v>7.5</v>
+        <v>1662795000</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>14</v>
       </c>
       <c r="L13">
-        <v>0.5</v>
+        <v>1662769800</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>12</v>
       </c>
       <c r="L14">
-        <v>1.5</v>
+        <v>1662773400</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1205,7 +1205,7 @@
         <v>4</v>
       </c>
       <c r="L15">
-        <v>1.5</v>
+        <v>1662773400</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>10</v>
       </c>
       <c r="L17">
-        <v>0.5</v>
+        <v>1662769800</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>6</v>
       </c>
       <c r="L18">
-        <v>8.5</v>
+        <v>1662798600</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="L19">
-        <v>0.5</v>
+        <v>1662769800</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>8</v>
       </c>
       <c r="L20">
-        <v>6.5</v>
+        <v>1662791400</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>16</v>
       </c>
       <c r="L21">
-        <v>9.5</v>
+        <v>1662802200</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>13</v>
       </c>
       <c r="L22">
-        <v>2.5</v>
+        <v>1662777000</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1629,7 +1629,7 @@
         <v>4</v>
       </c>
       <c r="L23">
-        <v>9.5</v>
+        <v>1662802200</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>18</v>
       </c>
       <c r="L24">
-        <v>5.5</v>
+        <v>1662787800</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1735,7 +1735,7 @@
         <v>14</v>
       </c>
       <c r="L25">
-        <v>7.5</v>
+        <v>1662795000</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>6</v>
       </c>
       <c r="L26">
-        <v>0.5</v>
+        <v>1662769800</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         <v>9</v>
       </c>
       <c r="L27">
-        <v>5.5</v>
+        <v>1662787800</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="L28">
-        <v>5.5</v>
+        <v>1662787800</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -1947,7 +1947,7 @@
         <v>4</v>
       </c>
       <c r="L29">
-        <v>7.5</v>
+        <v>1662795000</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -2000,7 +2000,7 @@
         <v>14</v>
       </c>
       <c r="L30">
-        <v>2.5</v>
+        <v>1662777000</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>18</v>
       </c>
       <c r="L31">
-        <v>0.5</v>
+        <v>1662769800</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="L32">
-        <v>0.5</v>
+        <v>1662769800</v>
       </c>
       <c r="M32">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         <v>3</v>
       </c>
       <c r="L33">
-        <v>7.5</v>
+        <v>1662795000</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>3</v>
       </c>
       <c r="L34">
-        <v>1.5</v>
+        <v>1662773400</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -2265,7 +2265,7 @@
         <v>14</v>
       </c>
       <c r="L35">
-        <v>4.5</v>
+        <v>1662784200</v>
       </c>
       <c r="M35">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>12</v>
       </c>
       <c r="L36">
-        <v>5.5</v>
+        <v>1662787800</v>
       </c>
       <c r="M36">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>13</v>
       </c>
       <c r="L37">
-        <v>0.5</v>
+        <v>1662769800</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -2424,7 +2424,7 @@
         <v>10</v>
       </c>
       <c r="L38">
-        <v>5.5</v>
+        <v>1662787800</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -2477,7 +2477,7 @@
         <v>14</v>
       </c>
       <c r="L39">
-        <v>9.5</v>
+        <v>1662802200</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>11</v>
       </c>
       <c r="L40">
-        <v>5.5</v>
+        <v>1662787800</v>
       </c>
       <c r="M40">
         <v>0</v>
@@ -2583,7 +2583,7 @@
         <v>1</v>
       </c>
       <c r="L41">
-        <v>0.5</v>
+        <v>1662769800</v>
       </c>
       <c r="M41">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>6</v>
       </c>
       <c r="L42">
-        <v>10.5</v>
+        <v>1662805800</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -2689,7 +2689,7 @@
         <v>1</v>
       </c>
       <c r="L43">
-        <v>9.5</v>
+        <v>1662802200</v>
       </c>
       <c r="M43">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>15</v>
       </c>
       <c r="L44">
-        <v>1.5</v>
+        <v>1662773400</v>
       </c>
       <c r="M44">
         <v>0</v>
@@ -2795,7 +2795,7 @@
         <v>7</v>
       </c>
       <c r="L45">
-        <v>7.5</v>
+        <v>1662795000</v>
       </c>
       <c r="M45">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>13</v>
       </c>
       <c r="L46">
-        <v>5.5</v>
+        <v>1662787800</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -2901,7 +2901,7 @@
         <v>11</v>
       </c>
       <c r="L47">
-        <v>2.5</v>
+        <v>1662777000</v>
       </c>
       <c r="M47">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>18</v>
       </c>
       <c r="L48">
-        <v>2.5</v>
+        <v>1662777000</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>9</v>
       </c>
       <c r="L49">
-        <v>1.5</v>
+        <v>1662773400</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -3060,7 +3060,7 @@
         <v>7</v>
       </c>
       <c r="L50">
-        <v>1.5</v>
+        <v>1662773400</v>
       </c>
       <c r="M50">
         <v>0</v>
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="L51">
-        <v>7.5</v>
+        <v>1662795000</v>
       </c>
       <c r="M51">
         <v>0</v>

--- a/data/1.2/order(2, 2).xlsx
+++ b/data/1.2/order(2, 2).xlsx
@@ -486,7 +486,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1661422500</v>
+        <v>-373.75</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -513,7 +513,7 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L2">
         <v>1662787800</v>
@@ -539,7 +539,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1661474400</v>
+        <v>-359.3333333333333</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1661568300</v>
+        <v>-333.25</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -645,7 +645,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1661575800</v>
+        <v>-331.1666666666667</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -672,7 +672,7 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L5">
         <v>1662791400</v>
@@ -698,7 +698,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1661614200</v>
+        <v>-320.5</v>
       </c>
       <c r="C6">
         <v>9</v>
@@ -725,7 +725,7 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L6">
         <v>1662802200</v>
@@ -751,7 +751,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1661662200</v>
+        <v>-307.1666666666667</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -804,7 +804,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1661846700</v>
+        <v>-255.9166666666667</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -857,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1661938200</v>
+        <v>-230.5</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1661999100</v>
+        <v>-213.5833333333333</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -963,7 +963,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1662001200</v>
+        <v>-213</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -990,7 +990,7 @@
         <v>1</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L11">
         <v>1662777000</v>
@@ -1016,7 +1016,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1662012600</v>
+        <v>-209.8333333333333</v>
       </c>
       <c r="C12">
         <v>7</v>
@@ -1069,7 +1069,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1662102900</v>
+        <v>-184.75</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1662108300</v>
+        <v>-183.25</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1175,7 +1175,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1662109500</v>
+        <v>-182.9166666666667</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1228,7 +1228,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1662135000</v>
+        <v>-175.8333333333333</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -1252,16 +1252,16 @@
         <v>11.418</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="L16">
-        <v>-1</v>
+        <v>1662784200</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>1663223400</v>
@@ -1281,7 +1281,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1662164700</v>
+        <v>-167.5833333333333</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1334,7 +1334,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1662171900</v>
+        <v>-165.5833333333333</v>
       </c>
       <c r="C18">
         <v>8</v>
@@ -1361,7 +1361,7 @@
         <v>1</v>
       </c>
       <c r="K18">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>1662798600</v>
@@ -1387,7 +1387,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1662178200</v>
+        <v>-163.8333333333333</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1440,7 +1440,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1662183000</v>
+        <v>-162.5</v>
       </c>
       <c r="C20">
         <v>6</v>
@@ -1467,7 +1467,7 @@
         <v>1</v>
       </c>
       <c r="K20">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L20">
         <v>1662791400</v>
@@ -1493,7 +1493,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1662205200</v>
+        <v>-156.3333333333333</v>
       </c>
       <c r="C21">
         <v>9</v>
@@ -1520,7 +1520,7 @@
         <v>1</v>
       </c>
       <c r="K21">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L21">
         <v>1662802200</v>
@@ -1546,7 +1546,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1662213900</v>
+        <v>-153.9166666666667</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -1573,7 +1573,7 @@
         <v>1</v>
       </c>
       <c r="K22">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="L22">
         <v>1662777000</v>
@@ -1599,7 +1599,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1662215100</v>
+        <v>-153.5833333333333</v>
       </c>
       <c r="C23">
         <v>9</v>
@@ -1626,7 +1626,7 @@
         <v>1</v>
       </c>
       <c r="K23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L23">
         <v>1662802200</v>
@@ -1652,7 +1652,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1662215700</v>
+        <v>-153.4166666666667</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -1679,7 +1679,7 @@
         <v>1</v>
       </c>
       <c r="K24">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="L24">
         <v>1662787800</v>
@@ -1705,7 +1705,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1662217800</v>
+        <v>-152.8333333333333</v>
       </c>
       <c r="C25">
         <v>7</v>
@@ -1732,7 +1732,7 @@
         <v>1</v>
       </c>
       <c r="K25">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L25">
         <v>1662795000</v>
@@ -1758,7 +1758,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1662220200</v>
+        <v>-152.1666666666667</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1811,7 +1811,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1662224700</v>
+        <v>-150.9166666666667</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -1864,7 +1864,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1662262200</v>
+        <v>-140.5</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -1891,7 +1891,7 @@
         <v>1</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L28">
         <v>1662787800</v>
@@ -1917,7 +1917,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1662266400</v>
+        <v>-139.3333333333333</v>
       </c>
       <c r="C29">
         <v>7</v>
@@ -1944,7 +1944,7 @@
         <v>1</v>
       </c>
       <c r="K29">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="L29">
         <v>1662795000</v>
@@ -1970,7 +1970,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1662285000</v>
+        <v>-134.1666666666667</v>
       </c>
       <c r="C30">
         <v>2</v>
@@ -1997,7 +1997,7 @@
         <v>1</v>
       </c>
       <c r="K30">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L30">
         <v>1662777000</v>
@@ -2023,7 +2023,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1662296100</v>
+        <v>-131.0833333333333</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -2076,7 +2076,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1662305100</v>
+        <v>-128.5833333333333</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1662305400</v>
+        <v>-128.5</v>
       </c>
       <c r="C33">
         <v>7</v>
@@ -2156,7 +2156,7 @@
         <v>1</v>
       </c>
       <c r="K33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L33">
         <v>1662795000</v>
@@ -2182,7 +2182,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1662306000</v>
+        <v>-128.3333333333333</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -2235,7 +2235,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1662308700</v>
+        <v>-127.5833333333333</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -2262,7 +2262,7 @@
         <v>1</v>
       </c>
       <c r="K35">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L35">
         <v>1662784200</v>
@@ -2288,7 +2288,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1662309900</v>
+        <v>-127.25</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -2315,7 +2315,7 @@
         <v>1</v>
       </c>
       <c r="K36">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L36">
         <v>1662787800</v>
@@ -2341,7 +2341,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1662337500</v>
+        <v>-119.5833333333333</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -2394,7 +2394,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1662341100</v>
+        <v>-118.5833333333333</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -2421,7 +2421,7 @@
         <v>1</v>
       </c>
       <c r="K38">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L38">
         <v>1662787800</v>
@@ -2447,7 +2447,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1662341700</v>
+        <v>-118.4166666666667</v>
       </c>
       <c r="C39">
         <v>9</v>
@@ -2474,7 +2474,7 @@
         <v>1</v>
       </c>
       <c r="K39">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L39">
         <v>1662802200</v>
@@ -2500,7 +2500,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1662352200</v>
+        <v>-115.5</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -2527,7 +2527,7 @@
         <v>1</v>
       </c>
       <c r="K40">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="L40">
         <v>1662787800</v>
@@ -2553,7 +2553,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1662354900</v>
+        <v>-114.75</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1662356700</v>
+        <v>-114.25</v>
       </c>
       <c r="C42">
         <v>10</v>
@@ -2633,7 +2633,7 @@
         <v>1</v>
       </c>
       <c r="K42">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L42">
         <v>1662805800</v>
@@ -2659,7 +2659,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1662357000</v>
+        <v>-114.1666666666667</v>
       </c>
       <c r="C43">
         <v>9</v>
@@ -2686,7 +2686,7 @@
         <v>1</v>
       </c>
       <c r="K43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L43">
         <v>1662802200</v>
@@ -2712,7 +2712,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1662358200</v>
+        <v>-113.8333333333333</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -2765,7 +2765,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1662361800</v>
+        <v>-112.8333333333333</v>
       </c>
       <c r="C45">
         <v>7</v>
@@ -2792,7 +2792,7 @@
         <v>1</v>
       </c>
       <c r="K45">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L45">
         <v>1662795000</v>
@@ -2818,7 +2818,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1662362400</v>
+        <v>-112.6666666666667</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -2845,7 +2845,7 @@
         <v>1</v>
       </c>
       <c r="K46">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="L46">
         <v>1662787800</v>
@@ -2871,7 +2871,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1662363900</v>
+        <v>-112.25</v>
       </c>
       <c r="C47">
         <v>2</v>
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="K47">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="L47">
         <v>1662777000</v>
@@ -2924,7 +2924,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1662370200</v>
+        <v>-110.5</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -2951,7 +2951,7 @@
         <v>1</v>
       </c>
       <c r="K48">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="L48">
         <v>1662777000</v>
@@ -2977,7 +2977,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1662381000</v>
+        <v>-107.5</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -3030,7 +3030,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1662390900</v>
+        <v>-104.75</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -3083,7 +3083,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1662390900</v>
+        <v>-104.75</v>
       </c>
       <c r="C51">
         <v>7</v>
@@ -3110,7 +3110,7 @@
         <v>1</v>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L51">
         <v>1662795000</v>
